--- a/va_facility_data_2025-02-20/West Seneca VA Clinic - Facility Data.xlsx"; filename*=UTF-8''West%20Seneca%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/West Seneca VA Clinic - Facility Data.xlsx"; filename*=UTF-8''West%20Seneca%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R60db76d614b84dae8258164faf02a7f6"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R239fad19ca91459c8b8db94e85433820"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R11b940a8f9db4b89b088fc676d56b171"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R2b9a6fd1b68f4a4ba595f60ecbd69b5b"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R614fe9b15f3f4d26859fc233a509191a"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R3f498f6d19d74fbaa300b9660e4e0607"/>
   </x:sheets>
 </x:workbook>
 </file>
